--- a/natmiOut/OldD0/LR-pairs_lrc2p/Hras-Cav1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Hras-Cav1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.71953218945127</v>
+        <v>10.105724</v>
       </c>
       <c r="H2">
-        <v>8.71953218945127</v>
+        <v>30.317172</v>
       </c>
       <c r="I2">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="J2">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.486796649463</v>
+        <v>409.6166503333334</v>
       </c>
       <c r="N2">
-        <v>109.486796649463</v>
+        <v>1228.849951</v>
       </c>
       <c r="O2">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="P2">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="Q2">
-        <v>954.6736477048981</v>
+        <v>4139.472814073175</v>
       </c>
       <c r="R2">
-        <v>954.6736477048981</v>
+        <v>37255.25532665857</v>
       </c>
       <c r="S2">
-        <v>0.1635848285016305</v>
+        <v>0.343179496328771</v>
       </c>
       <c r="T2">
-        <v>0.1635848285016305</v>
+        <v>0.343179496328771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.71953218945127</v>
+        <v>10.105724</v>
       </c>
       <c r="H3">
-        <v>8.71953218945127</v>
+        <v>30.317172</v>
       </c>
       <c r="I3">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="J3">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.2248386702937</v>
+        <v>56.495384</v>
       </c>
       <c r="N3">
-        <v>56.2248386702937</v>
+        <v>169.486152</v>
       </c>
       <c r="O3">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="P3">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="Q3">
-        <v>490.2542906323304</v>
+        <v>570.926757978016</v>
       </c>
       <c r="R3">
-        <v>490.2542906323304</v>
+        <v>5138.340821802144</v>
       </c>
       <c r="S3">
-        <v>0.08400584246572666</v>
+        <v>0.04733220051050929</v>
       </c>
       <c r="T3">
-        <v>0.08400584246572666</v>
+        <v>0.04733220051050929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.71953218945127</v>
+        <v>10.105724</v>
       </c>
       <c r="H4">
-        <v>8.71953218945127</v>
+        <v>30.317172</v>
       </c>
       <c r="I4">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="J4">
-        <v>0.5227669970209291</v>
+        <v>0.5504853801993582</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.174625051329</v>
+        <v>190.9434713333333</v>
       </c>
       <c r="N4">
-        <v>184.174625051329</v>
+        <v>572.830414</v>
       </c>
       <c r="O4">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064339</v>
       </c>
       <c r="P4">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064338</v>
       </c>
       <c r="Q4">
-        <v>1605.916571615182</v>
+        <v>1929.622020896579</v>
       </c>
       <c r="R4">
-        <v>1605.916571615182</v>
+        <v>17366.59818806921</v>
       </c>
       <c r="S4">
-        <v>0.275176326053572</v>
+        <v>0.159973683360078</v>
       </c>
       <c r="T4">
-        <v>0.275176326053572</v>
+        <v>0.159973683360078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.90823209944779</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H5">
-        <v>4.90823209944779</v>
+        <v>15.028134</v>
       </c>
       <c r="I5">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884925</v>
       </c>
       <c r="J5">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884924</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>109.486796649463</v>
+        <v>409.6166503333334</v>
       </c>
       <c r="N5">
-        <v>109.486796649463</v>
+        <v>1228.849951</v>
       </c>
       <c r="O5">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="P5">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="Q5">
-        <v>537.386609780607</v>
+        <v>2051.924636613493</v>
       </c>
       <c r="R5">
-        <v>537.386609780607</v>
+        <v>18467.32172952144</v>
       </c>
       <c r="S5">
-        <v>0.09208203935593164</v>
+        <v>0.1701130783861133</v>
       </c>
       <c r="T5">
-        <v>0.09208203935593164</v>
+        <v>0.1701130783861133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.90823209944779</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H6">
-        <v>4.90823209944779</v>
+        <v>15.028134</v>
       </c>
       <c r="I6">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884925</v>
       </c>
       <c r="J6">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884924</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.2248386702937</v>
+        <v>56.495384</v>
       </c>
       <c r="N6">
-        <v>56.2248386702937</v>
+        <v>169.486152</v>
       </c>
       <c r="O6">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="P6">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="Q6">
-        <v>275.9645579478089</v>
+        <v>283.006733711152</v>
       </c>
       <c r="R6">
-        <v>275.9645579478089</v>
+        <v>2547.060603400368</v>
       </c>
       <c r="S6">
-        <v>0.04728696030622506</v>
+        <v>0.0234624341540432</v>
       </c>
       <c r="T6">
-        <v>0.04728696030622506</v>
+        <v>0.02346243415404319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.90823209944779</v>
+        <v>5.009378000000001</v>
       </c>
       <c r="H7">
-        <v>4.90823209944779</v>
+        <v>15.028134</v>
       </c>
       <c r="I7">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884925</v>
       </c>
       <c r="J7">
-        <v>0.2942659880783723</v>
+        <v>0.2728740021884924</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>184.174625051329</v>
+        <v>190.9434713333333</v>
       </c>
       <c r="N7">
-        <v>184.174625051329</v>
+        <v>572.830414</v>
       </c>
       <c r="O7">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064339</v>
       </c>
       <c r="P7">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064338</v>
       </c>
       <c r="Q7">
-        <v>903.9718065806942</v>
+        <v>956.5080245408309</v>
       </c>
       <c r="R7">
-        <v>903.9718065806942</v>
+        <v>8608.572220867478</v>
       </c>
       <c r="S7">
-        <v>0.1548969884162157</v>
+        <v>0.07929848964833602</v>
       </c>
       <c r="T7">
-        <v>0.1548969884162157</v>
+        <v>0.079298489648336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.05181234685054</v>
+        <v>3.242740666666667</v>
       </c>
       <c r="H8">
-        <v>3.05181234685054</v>
+        <v>9.728222000000001</v>
       </c>
       <c r="I8">
-        <v>0.1829670149006985</v>
+        <v>0.1766406176121494</v>
       </c>
       <c r="J8">
-        <v>0.1829670149006985</v>
+        <v>0.1766406176121493</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>109.486796649463</v>
+        <v>409.6166503333334</v>
       </c>
       <c r="N8">
-        <v>109.486796649463</v>
+        <v>1228.849951</v>
       </c>
       <c r="O8">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="P8">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="Q8">
-        <v>334.1331578319455</v>
+        <v>1328.28056977968</v>
       </c>
       <c r="R8">
-        <v>334.1331578319455</v>
+        <v>11954.52512801712</v>
       </c>
       <c r="S8">
-        <v>0.05725424122898057</v>
+        <v>0.1101199784113924</v>
       </c>
       <c r="T8">
-        <v>0.05725424122898057</v>
+        <v>0.1101199784113924</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.05181234685054</v>
+        <v>3.242740666666667</v>
       </c>
       <c r="H9">
-        <v>3.05181234685054</v>
+        <v>9.728222000000001</v>
       </c>
       <c r="I9">
-        <v>0.1829670149006985</v>
+        <v>0.1766406176121494</v>
       </c>
       <c r="J9">
-        <v>0.1829670149006985</v>
+        <v>0.1766406176121493</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.2248386702937</v>
+        <v>56.495384</v>
       </c>
       <c r="N9">
-        <v>56.2248386702937</v>
+        <v>169.486152</v>
       </c>
       <c r="O9">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="P9">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="Q9">
-        <v>171.587656853682</v>
+        <v>183.1998791757493</v>
       </c>
       <c r="R9">
-        <v>171.587656853682</v>
+        <v>1648.798912581744</v>
       </c>
       <c r="S9">
-        <v>0.02940181441782368</v>
+        <v>0.01518803120273711</v>
       </c>
       <c r="T9">
-        <v>0.02940181441782368</v>
+        <v>0.0151880312027371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.05181234685054</v>
+        <v>3.242740666666667</v>
       </c>
       <c r="H10">
-        <v>3.05181234685054</v>
+        <v>9.728222000000001</v>
       </c>
       <c r="I10">
-        <v>0.1829670149006985</v>
+        <v>0.1766406176121494</v>
       </c>
       <c r="J10">
-        <v>0.1829670149006985</v>
+        <v>0.1766406176121493</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.174625051329</v>
+        <v>190.9434713333333</v>
       </c>
       <c r="N10">
-        <v>184.174625051329</v>
+        <v>572.830414</v>
       </c>
       <c r="O10">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064339</v>
       </c>
       <c r="P10">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064338</v>
       </c>
       <c r="Q10">
-        <v>562.0663947082146</v>
+        <v>619.180159527101</v>
       </c>
       <c r="R10">
-        <v>562.0663947082146</v>
+        <v>5572.621435743908</v>
       </c>
       <c r="S10">
-        <v>0.09631095925389427</v>
+        <v>0.05133260799801989</v>
       </c>
       <c r="T10">
-        <v>0.09631095925389427</v>
+        <v>0.05133260799801988</v>
       </c>
     </row>
   </sheetData>
